--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N2">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q2">
-        <v>6.348356148684555</v>
+        <v>0.06639223901222222</v>
       </c>
       <c r="R2">
-        <v>57.135205338161</v>
+        <v>0.5975301511100001</v>
       </c>
       <c r="S2">
-        <v>0.103946600809606</v>
+        <v>0.00122348002493676</v>
       </c>
       <c r="T2">
-        <v>0.103946600809606</v>
+        <v>0.00122348002493676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q3">
-        <v>5.99048950058011</v>
+        <v>0.07330515786911111</v>
       </c>
       <c r="R3">
-        <v>53.91440550522099</v>
+        <v>0.659746420822</v>
       </c>
       <c r="S3">
-        <v>0.09808697026236704</v>
+        <v>0.001350871693921672</v>
       </c>
       <c r="T3">
-        <v>0.09808697026236704</v>
+        <v>0.001350871693921672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N4">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q4">
-        <v>5.433268671761887</v>
+        <v>0.1013738298082222</v>
       </c>
       <c r="R4">
-        <v>48.89941804585699</v>
+        <v>0.912364468274</v>
       </c>
       <c r="S4">
-        <v>0.0889631577825068</v>
+        <v>0.001868122805722306</v>
       </c>
       <c r="T4">
-        <v>0.0889631577825068</v>
+        <v>0.001868122805722306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>25.300919</v>
       </c>
       <c r="I5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N5">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q5">
-        <v>12.98498543980478</v>
+        <v>11.09750314784611</v>
       </c>
       <c r="R5">
-        <v>116.864868958243</v>
+        <v>99.87752833061501</v>
       </c>
       <c r="S5">
-        <v>0.2126133232631592</v>
+        <v>0.2045054306055715</v>
       </c>
       <c r="T5">
-        <v>0.2126133232631592</v>
+        <v>0.2045054306055715</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.300919</v>
       </c>
       <c r="I6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.358617</v>
       </c>
       <c r="O6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q6">
         <v>12.25300174100255</v>
@@ -818,10 +818,10 @@
         <v>110.277015669023</v>
       </c>
       <c r="S6">
-        <v>0.200627981616204</v>
+        <v>0.2257990255890029</v>
       </c>
       <c r="T6">
-        <v>0.200627981616204</v>
+        <v>0.2257990255890029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.300919</v>
       </c>
       <c r="I7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N7">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q7">
-        <v>11.11325718674344</v>
+        <v>16.94469733426011</v>
       </c>
       <c r="R7">
-        <v>100.019314680691</v>
+        <v>152.502276008341</v>
       </c>
       <c r="S7">
-        <v>0.1819660525385414</v>
+        <v>0.3122578636525561</v>
       </c>
       <c r="T7">
-        <v>0.1819660525385414</v>
+        <v>0.3122578636525561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H8">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N8">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q8">
-        <v>2.482560513486556</v>
+        <v>3.780982438521667</v>
       </c>
       <c r="R8">
-        <v>22.343044621379</v>
+        <v>34.028841946695</v>
       </c>
       <c r="S8">
-        <v>0.04064890510822224</v>
+        <v>0.06967616331355148</v>
       </c>
       <c r="T8">
-        <v>0.04064890510822222</v>
+        <v>0.06967616331355148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H9">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.358617</v>
       </c>
       <c r="O9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q9">
-        <v>2.342614740302111</v>
+        <v>4.174667381004333</v>
       </c>
       <c r="R9">
-        <v>21.083532662719</v>
+        <v>37.572006429039</v>
       </c>
       <c r="S9">
-        <v>0.03835746350042753</v>
+        <v>0.07693101222981183</v>
       </c>
       <c r="T9">
-        <v>0.03835746350042752</v>
+        <v>0.07693101222981183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H10">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N10">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q10">
-        <v>2.124710389235889</v>
+        <v>5.773154753223667</v>
       </c>
       <c r="R10">
-        <v>19.122393503123</v>
+        <v>51.958392779013</v>
       </c>
       <c r="S10">
-        <v>0.03478954511896585</v>
+        <v>0.1063880300849255</v>
       </c>
       <c r="T10">
-        <v>0.03478954511896584</v>
+        <v>0.1063880300849255</v>
       </c>
     </row>
   </sheetData>
